--- a/Price.xlsx
+++ b/Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Core i5\Documents\GitHub\TESTRMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD5AF34-6A95-4D4E-95C4-DFBDC46A39A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47C851C-CE46-45C8-9CAA-52E8A589156B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Price" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,16 @@
     <sheet name="ROV" sheetId="3" r:id="rId3"/>
     <sheet name="VALORANT" sheetId="4" r:id="rId4"/>
     <sheet name="FREEFIRE" sheetId="5" r:id="rId5"/>
+    <sheet name="HOK" sheetId="6" r:id="rId6"/>
+    <sheet name="ARENA" sheetId="7" r:id="rId7"/>
+    <sheet name="OPM" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>PUBG_baht</t>
   </si>
@@ -180,6 +183,18 @@
   </si>
   <si>
     <t>ROV_Cmore</t>
+  </si>
+  <si>
+    <t>HOK_baht</t>
+  </si>
+  <si>
+    <t>HOK_currency</t>
+  </si>
+  <si>
+    <t>OPM_baht</t>
+  </si>
+  <si>
+    <t>OPM_currency</t>
   </si>
 </sst>
 </file>
@@ -5381,8 +5396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5397,7 +5412,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>60</v>
@@ -5445,7 +5460,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -5493,7 +5508,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>60</v>
@@ -5541,7 +5556,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>60</v>
@@ -5900,7 +5915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -6257,10 +6272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70719E4E-844E-4349-BEEF-2F599C232E80}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6275,34 +6290,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B2">
-        <v>540</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B3">
-        <v>1130</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="B4">
-        <v>1945</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>900</v>
+        <v>882</v>
       </c>
       <c r="B5">
-        <v>3930</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -6323,298 +6338,146 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="B8">
-        <v>540</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="B9">
-        <v>1130</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>450</v>
+        <v>756</v>
       </c>
       <c r="B10">
-        <v>1945</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>900</v>
+        <v>1134</v>
       </c>
       <c r="B11">
-        <v>3930</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>135</v>
+        <v>2268</v>
       </c>
       <c r="B12">
-        <v>540</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>270</v>
+        <v>1512</v>
       </c>
       <c r="B13">
-        <v>1130</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="B14">
-        <v>1945</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>900</v>
+        <v>252</v>
       </c>
       <c r="B15">
-        <v>3930</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>135</v>
+        <v>504</v>
       </c>
       <c r="B16">
-        <v>540</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>270</v>
+        <v>882</v>
       </c>
       <c r="B17">
-        <v>1130</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>450</v>
+        <v>1260</v>
       </c>
       <c r="B18">
-        <v>1945</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>900</v>
+        <v>2520</v>
       </c>
       <c r="B19">
-        <v>3930</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>135</v>
+        <v>378</v>
       </c>
       <c r="B20">
-        <v>540</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>270</v>
+        <v>630</v>
       </c>
       <c r="B21">
-        <v>1130</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>450</v>
+        <v>756</v>
       </c>
       <c r="B22">
-        <v>1945</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>900</v>
+        <v>1134</v>
       </c>
       <c r="B23">
-        <v>3930</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>135</v>
+        <v>2268</v>
       </c>
       <c r="B24">
-        <v>540</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>270</v>
+        <v>1512</v>
       </c>
       <c r="B25">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>450</v>
-      </c>
-      <c r="B26">
-        <v>1945</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>900</v>
-      </c>
-      <c r="B27">
-        <v>3930</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2250</v>
-      </c>
-      <c r="B28">
-        <v>9805</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2295</v>
-      </c>
-      <c r="B29">
-        <v>10020</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2205</v>
-      </c>
-      <c r="B30">
-        <v>9530</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1260</v>
-      </c>
-      <c r="B31">
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2520</v>
-      </c>
-      <c r="B32">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1260</v>
-      </c>
-      <c r="B33">
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2520</v>
-      </c>
-      <c r="B34">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1260</v>
-      </c>
-      <c r="B35">
-        <v>5550</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2520</v>
-      </c>
-      <c r="B36">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2520</v>
-      </c>
-      <c r="B37">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2520</v>
-      </c>
-      <c r="B38">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>2520</v>
-      </c>
-      <c r="B39">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>2520</v>
-      </c>
-      <c r="B40">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>2520</v>
-      </c>
-      <c r="B41">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>2520</v>
-      </c>
-      <c r="B42">
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>540</v>
-      </c>
-      <c r="B43">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>585</v>
-      </c>
-      <c r="B44">
-        <v>2485</v>
+        <v>6600</v>
       </c>
     </row>
   </sheetData>
@@ -6628,7 +6491,7 @@
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7044,4 +6907,1249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5308E2-A263-4701-8A77-2D95EE9E6801}">
+  <dimension ref="A1:B60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>139</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>189</v>
+      </c>
+      <c r="B5">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>269</v>
+      </c>
+      <c r="B6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>399</v>
+      </c>
+      <c r="B7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>739</v>
+      </c>
+      <c r="B8">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1199</v>
+      </c>
+      <c r="B9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2519</v>
+      </c>
+      <c r="B10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>139</v>
+      </c>
+      <c r="B13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>189</v>
+      </c>
+      <c r="B14">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>269</v>
+      </c>
+      <c r="B15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>399</v>
+      </c>
+      <c r="B16">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>739</v>
+      </c>
+      <c r="B17">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1199</v>
+      </c>
+      <c r="B18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2519</v>
+      </c>
+      <c r="B19">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>139</v>
+      </c>
+      <c r="B22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>189</v>
+      </c>
+      <c r="B23">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>269</v>
+      </c>
+      <c r="B24">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>399</v>
+      </c>
+      <c r="B25">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>739</v>
+      </c>
+      <c r="B26">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1199</v>
+      </c>
+      <c r="B27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2519</v>
+      </c>
+      <c r="B28">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>89</v>
+      </c>
+      <c r="B30">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>139</v>
+      </c>
+      <c r="B31">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>189</v>
+      </c>
+      <c r="B32">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>269</v>
+      </c>
+      <c r="B33">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>399</v>
+      </c>
+      <c r="B34">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>739</v>
+      </c>
+      <c r="B35">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1199</v>
+      </c>
+      <c r="B36">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2519</v>
+      </c>
+      <c r="B37">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1199</v>
+      </c>
+      <c r="B38">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2519</v>
+      </c>
+      <c r="B39">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1199</v>
+      </c>
+      <c r="B40">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2519</v>
+      </c>
+      <c r="B41">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1199</v>
+      </c>
+      <c r="B42">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2519</v>
+      </c>
+      <c r="B43">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1199</v>
+      </c>
+      <c r="B44">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2519</v>
+      </c>
+      <c r="B45">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2519</v>
+      </c>
+      <c r="B46">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2519</v>
+      </c>
+      <c r="B47">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2519</v>
+      </c>
+      <c r="B48">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2519</v>
+      </c>
+      <c r="B49">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2519</v>
+      </c>
+      <c r="B50">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2519</v>
+      </c>
+      <c r="B51">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2519</v>
+      </c>
+      <c r="B52">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2519</v>
+      </c>
+      <c r="B53">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2519</v>
+      </c>
+      <c r="B54">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2519</v>
+      </c>
+      <c r="B55">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2519</v>
+      </c>
+      <c r="B56">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2519</v>
+      </c>
+      <c r="B57">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2519</v>
+      </c>
+      <c r="B58">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2519</v>
+      </c>
+      <c r="B59">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2519</v>
+      </c>
+      <c r="B60">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B9259D-DA6A-41A8-869F-D8EABB5EA227}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>299</v>
+      </c>
+      <c r="B4">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>689</v>
+      </c>
+      <c r="B5">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1329</v>
+      </c>
+      <c r="B6">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2519</v>
+      </c>
+      <c r="B7">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>145</v>
+      </c>
+      <c r="B9">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>299</v>
+      </c>
+      <c r="B10">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>689</v>
+      </c>
+      <c r="B11">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1329</v>
+      </c>
+      <c r="B12">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2519</v>
+      </c>
+      <c r="B13">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>145</v>
+      </c>
+      <c r="B15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>299</v>
+      </c>
+      <c r="B16">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>689</v>
+      </c>
+      <c r="B17">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1329</v>
+      </c>
+      <c r="B18">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2519</v>
+      </c>
+      <c r="B19">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>145</v>
+      </c>
+      <c r="B21">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>299</v>
+      </c>
+      <c r="B22">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>689</v>
+      </c>
+      <c r="B23">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1329</v>
+      </c>
+      <c r="B24">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2519</v>
+      </c>
+      <c r="B25">
+        <v>6500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A072932-5761-4DB9-8C4D-74AEF509A882}">
+  <dimension ref="A1:B65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>165</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>479</v>
+      </c>
+      <c r="B4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1549</v>
+      </c>
+      <c r="B5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3599</v>
+      </c>
+      <c r="B6">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>7149</v>
+      </c>
+      <c r="B7">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10649</v>
+      </c>
+      <c r="B8">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>17499</v>
+      </c>
+      <c r="B9">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>165</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>479</v>
+      </c>
+      <c r="B12">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1549</v>
+      </c>
+      <c r="B13">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3599</v>
+      </c>
+      <c r="B14">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7149</v>
+      </c>
+      <c r="B15">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10649</v>
+      </c>
+      <c r="B16">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>17499</v>
+      </c>
+      <c r="B17">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>165</v>
+      </c>
+      <c r="B19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>479</v>
+      </c>
+      <c r="B20">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1549</v>
+      </c>
+      <c r="B21">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3599</v>
+      </c>
+      <c r="B22">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>7149</v>
+      </c>
+      <c r="B23">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10649</v>
+      </c>
+      <c r="B24">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>17499</v>
+      </c>
+      <c r="B25">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>165</v>
+      </c>
+      <c r="B27">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>479</v>
+      </c>
+      <c r="B28">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1549</v>
+      </c>
+      <c r="B29">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3599</v>
+      </c>
+      <c r="B30">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>7149</v>
+      </c>
+      <c r="B31">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10649</v>
+      </c>
+      <c r="B32">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>17499</v>
+      </c>
+      <c r="B33">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>165</v>
+      </c>
+      <c r="B35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>479</v>
+      </c>
+      <c r="B36">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1549</v>
+      </c>
+      <c r="B37">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3599</v>
+      </c>
+      <c r="B38">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>7149</v>
+      </c>
+      <c r="B39">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>10649</v>
+      </c>
+      <c r="B40">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>17499</v>
+      </c>
+      <c r="B41">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>29</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>165</v>
+      </c>
+      <c r="B43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>479</v>
+      </c>
+      <c r="B44">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1549</v>
+      </c>
+      <c r="B45">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3599</v>
+      </c>
+      <c r="B46">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7149</v>
+      </c>
+      <c r="B47">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10649</v>
+      </c>
+      <c r="B48">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>17499</v>
+      </c>
+      <c r="B49">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>165</v>
+      </c>
+      <c r="B51">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>479</v>
+      </c>
+      <c r="B52">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1549</v>
+      </c>
+      <c r="B53">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3599</v>
+      </c>
+      <c r="B54">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7149</v>
+      </c>
+      <c r="B55">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10649</v>
+      </c>
+      <c r="B56">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>17499</v>
+      </c>
+      <c r="B57">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>165</v>
+      </c>
+      <c r="B59">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>479</v>
+      </c>
+      <c r="B60">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1549</v>
+      </c>
+      <c r="B61">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3599</v>
+      </c>
+      <c r="B62">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>7149</v>
+      </c>
+      <c r="B63">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10649</v>
+      </c>
+      <c r="B64">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>17499</v>
+      </c>
+      <c r="B65">
+        <v>4520</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Price.xlsx
+++ b/Price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Core i5\Documents\GitHub\TESTRMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D47C851C-CE46-45C8-9CAA-52E8A589156B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B983FEF1-695A-44BA-8BC3-1FFD5334AC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22815" yWindow="0" windowWidth="5985" windowHeight="8640" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Price" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="HOK" sheetId="6" r:id="rId6"/>
     <sheet name="ARENA" sheetId="7" r:id="rId7"/>
     <sheet name="OPM" sheetId="8" r:id="rId8"/>
+    <sheet name="GENSHIN" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>PUBG_baht</t>
   </si>
@@ -195,6 +196,12 @@
   </si>
   <si>
     <t>OPM_currency</t>
+  </si>
+  <si>
+    <t>Genshin_baht</t>
+  </si>
+  <si>
+    <t>Genshin_currency</t>
   </si>
 </sst>
 </file>
@@ -6274,7 +6281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70719E4E-844E-4349-BEEF-2F599C232E80}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -7409,7 +7416,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7624,7 +7631,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8152,4 +8159,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DACEAD5-4EC0-42D8-AF25-6EBDED94A196}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>139</v>
+      </c>
+      <c r="B3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>429</v>
+      </c>
+      <c r="B4">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>869</v>
+      </c>
+      <c r="B5">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1329</v>
+      </c>
+      <c r="B6">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2619</v>
+      </c>
+      <c r="B7">
+        <v>8080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>